--- a/src/test/input/used/BBP/BBP_20250522.xlsx
+++ b/src/test/input/used/BBP/BBP_20250522.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eclipse_workspace\LC_GEN\src\test\input\group\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2E4E44-B08A-40CC-81DD-EAF3CFD72900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B810022-8E21-44EB-9B8F-84714B3EBE74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="29020" windowHeight="15700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="B4-BBP" sheetId="1" r:id="rId1"/>
@@ -2921,10 +2921,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:CZ102"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D102"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="14.5" customHeight="1"/>
@@ -2994,7 +2995,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="29" customHeight="1">
+    <row r="2" spans="1:15" ht="29" hidden="1" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
@@ -3046,7 +3047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="18" customHeight="1">
+    <row r="3" spans="1:15" ht="18" hidden="1" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
@@ -3094,7 +3095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="18" customHeight="1">
+    <row r="4" spans="1:15" ht="18" hidden="1" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
@@ -3142,7 +3143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="18" customHeight="1">
+    <row r="5" spans="1:15" ht="18" hidden="1" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
@@ -3190,7 +3191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="29" customHeight="1">
+    <row r="6" spans="1:15" ht="29" hidden="1" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
@@ -3240,7 +3241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="18" customHeight="1">
+    <row r="7" spans="1:15" ht="18" hidden="1" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -3286,7 +3287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="18" customHeight="1">
+    <row r="8" spans="1:15" ht="18" hidden="1" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
@@ -3332,7 +3333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="18" customHeight="1">
+    <row r="9" spans="1:15" ht="18" hidden="1" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -3378,7 +3379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="29" customHeight="1">
+    <row r="10" spans="1:15" ht="29" hidden="1" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
@@ -3426,7 +3427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="18" customHeight="1">
+    <row r="11" spans="1:15" ht="18" hidden="1" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
@@ -3474,7 +3475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="18" customHeight="1">
+    <row r="12" spans="1:15" ht="18" hidden="1" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
@@ -3522,7 +3523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="18" customHeight="1">
+    <row r="13" spans="1:15" ht="18" hidden="1" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
@@ -3570,7 +3571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="22.9" customHeight="1">
+    <row r="14" spans="1:15" ht="22.9" hidden="1" customHeight="1">
       <c r="A14" s="18" t="s">
         <v>13</v>
       </c>
@@ -3616,7 +3617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="18" customHeight="1">
+    <row r="15" spans="1:15" ht="18" hidden="1" customHeight="1">
       <c r="A15" s="18" t="s">
         <v>13</v>
       </c>
@@ -3662,7 +3663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="18" customHeight="1">
+    <row r="16" spans="1:15" ht="18" hidden="1" customHeight="1">
       <c r="A16" s="18" t="s">
         <v>13</v>
       </c>
@@ -3708,7 +3709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="18" customHeight="1">
+    <row r="17" spans="1:15" ht="18" hidden="1" customHeight="1">
       <c r="A17" s="18" t="s">
         <v>13</v>
       </c>
@@ -3754,7 +3755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="19.399999999999999" customHeight="1">
+    <row r="18" spans="1:15" ht="19.399999999999999" hidden="1" customHeight="1">
       <c r="A18" s="18" t="s">
         <v>13</v>
       </c>
@@ -3800,7 +3801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="18" customHeight="1">
+    <row r="19" spans="1:15" ht="18" hidden="1" customHeight="1">
       <c r="A19" s="18" t="s">
         <v>13</v>
       </c>
@@ -3846,7 +3847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="18" customHeight="1">
+    <row r="20" spans="1:15" ht="18" hidden="1" customHeight="1">
       <c r="A20" s="18" t="s">
         <v>13</v>
       </c>
@@ -3892,7 +3893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="18" customHeight="1">
+    <row r="21" spans="1:15" ht="18" hidden="1" customHeight="1">
       <c r="A21" s="18" t="s">
         <v>13</v>
       </c>
@@ -3938,7 +3939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="23.65" customHeight="1">
+    <row r="22" spans="1:15" ht="23.65" hidden="1" customHeight="1">
       <c r="A22" s="18" t="s">
         <v>13</v>
       </c>
@@ -3984,7 +3985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="18" customHeight="1">
+    <row r="23" spans="1:15" ht="18" hidden="1" customHeight="1">
       <c r="A23" s="18" t="s">
         <v>13</v>
       </c>
@@ -4030,7 +4031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="18" customHeight="1">
+    <row r="24" spans="1:15" ht="18" hidden="1" customHeight="1">
       <c r="A24" s="18" t="s">
         <v>13</v>
       </c>
@@ -4076,7 +4077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="18" customHeight="1">
+    <row r="25" spans="1:15" ht="18" hidden="1" customHeight="1">
       <c r="A25" s="18" t="s">
         <v>13</v>
       </c>
@@ -4122,7 +4123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="21.5" customHeight="1">
+    <row r="26" spans="1:15" ht="21.5" hidden="1" customHeight="1">
       <c r="A26" s="18" t="s">
         <v>13</v>
       </c>
@@ -4170,7 +4171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="18" customHeight="1">
+    <row r="27" spans="1:15" ht="18" hidden="1" customHeight="1">
       <c r="A27" s="18" t="s">
         <v>13</v>
       </c>
@@ -4218,7 +4219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="18" customHeight="1">
+    <row r="28" spans="1:15" ht="18" hidden="1" customHeight="1">
       <c r="A28" s="18" t="s">
         <v>13</v>
       </c>
@@ -4266,7 +4267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="18" customHeight="1">
+    <row r="29" spans="1:15" ht="18" hidden="1" customHeight="1">
       <c r="A29" s="18" t="s">
         <v>13</v>
       </c>
@@ -4314,7 +4315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="20.65" customHeight="1">
+    <row r="30" spans="1:15" ht="20.65" hidden="1" customHeight="1">
       <c r="A30" s="18" t="s">
         <v>13</v>
       </c>
@@ -4360,7 +4361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="18" customHeight="1">
+    <row r="31" spans="1:15" ht="18" hidden="1" customHeight="1">
       <c r="A31" s="18" t="s">
         <v>13</v>
       </c>
@@ -4406,7 +4407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="18" customHeight="1">
+    <row r="32" spans="1:15" ht="18" hidden="1" customHeight="1">
       <c r="A32" s="18" t="s">
         <v>13</v>
       </c>
@@ -4452,7 +4453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:104" ht="18" customHeight="1">
+    <row r="33" spans="1:104" ht="18" hidden="1" customHeight="1">
       <c r="A33" s="18" t="s">
         <v>13</v>
       </c>
@@ -4498,7 +4499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:104" s="44" customFormat="1" ht="17.399999999999999" customHeight="1">
+    <row r="34" spans="1:104" s="44" customFormat="1" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A34" s="35" t="s">
         <v>13</v>
       </c>
@@ -4635,7 +4636,7 @@
       <c r="CY34" s="43"/>
       <c r="CZ34" s="43"/>
     </row>
-    <row r="35" spans="1:104" s="44" customFormat="1" ht="17.399999999999999" customHeight="1">
+    <row r="35" spans="1:104" s="44" customFormat="1" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A35" s="35" t="s">
         <v>13</v>
       </c>
@@ -4772,7 +4773,7 @@
       <c r="CY35" s="43"/>
       <c r="CZ35" s="43"/>
     </row>
-    <row r="36" spans="1:104" s="44" customFormat="1" ht="17.399999999999999" customHeight="1">
+    <row r="36" spans="1:104" s="44" customFormat="1" ht="17.399999999999999" hidden="1" customHeight="1">
       <c r="A36" s="35" t="s">
         <v>13</v>
       </c>
@@ -4907,7 +4908,7 @@
       <c r="CY36" s="43"/>
       <c r="CZ36" s="43"/>
     </row>
-    <row r="37" spans="1:104" ht="17.25" customHeight="1">
+    <row r="37" spans="1:104" ht="17.25" hidden="1" customHeight="1">
       <c r="A37" s="30" t="s">
         <v>13</v>
       </c>
@@ -4953,7 +4954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:104" ht="18" customHeight="1">
+    <row r="38" spans="1:104" ht="18" hidden="1" customHeight="1">
       <c r="A38" s="18" t="s">
         <v>13</v>
       </c>
@@ -4999,7 +5000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:104" ht="18" customHeight="1">
+    <row r="39" spans="1:104" ht="18" hidden="1" customHeight="1">
       <c r="A39" s="18" t="s">
         <v>13</v>
       </c>
@@ -5045,7 +5046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:104" ht="19.25" customHeight="1">
+    <row r="40" spans="1:104" ht="19.25" hidden="1" customHeight="1">
       <c r="A40" s="18" t="s">
         <v>13</v>
       </c>
@@ -5091,7 +5092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:104" ht="18" customHeight="1">
+    <row r="41" spans="1:104" ht="18" hidden="1" customHeight="1">
       <c r="A41" s="18" t="s">
         <v>13</v>
       </c>
@@ -5137,7 +5138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:104" ht="18" customHeight="1">
+    <row r="42" spans="1:104" ht="18" hidden="1" customHeight="1">
       <c r="A42" s="18" t="s">
         <v>13</v>
       </c>
@@ -5183,7 +5184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:104" ht="19.149999999999999" customHeight="1">
+    <row r="43" spans="1:104" ht="19.149999999999999" hidden="1" customHeight="1">
       <c r="A43" s="18" t="s">
         <v>13</v>
       </c>
@@ -5229,7 +5230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:104" ht="18" customHeight="1">
+    <row r="44" spans="1:104" ht="18" hidden="1" customHeight="1">
       <c r="A44" s="18" t="s">
         <v>13</v>
       </c>
@@ -5275,7 +5276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:104" ht="18" customHeight="1">
+    <row r="45" spans="1:104" ht="18" hidden="1" customHeight="1">
       <c r="A45" s="29" t="s">
         <v>13</v>
       </c>
@@ -5321,7 +5322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:104" ht="19.899999999999999" customHeight="1">
+    <row r="46" spans="1:104" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="A46" s="30" t="s">
         <v>13</v>
       </c>
@@ -5367,7 +5368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:104" ht="18" customHeight="1">
+    <row r="47" spans="1:104" ht="18" hidden="1" customHeight="1">
       <c r="A47" s="18" t="s">
         <v>13</v>
       </c>
@@ -5413,7 +5414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:104" ht="18" customHeight="1">
+    <row r="48" spans="1:104" ht="18" hidden="1" customHeight="1">
       <c r="A48" s="18" t="s">
         <v>13</v>
       </c>
@@ -5459,7 +5460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="22" customHeight="1">
+    <row r="49" spans="1:15" ht="22" hidden="1" customHeight="1">
       <c r="A49" s="18" t="s">
         <v>13</v>
       </c>
@@ -5505,7 +5506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="18" customHeight="1">
+    <row r="50" spans="1:15" ht="18" hidden="1" customHeight="1">
       <c r="A50" s="18" t="s">
         <v>13</v>
       </c>
@@ -5551,7 +5552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="18" customHeight="1">
+    <row r="51" spans="1:15" ht="18" hidden="1" customHeight="1">
       <c r="A51" s="18" t="s">
         <v>13</v>
       </c>
@@ -5597,7 +5598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="18.5" customHeight="1">
+    <row r="52" spans="1:15" ht="18.5" hidden="1" customHeight="1">
       <c r="A52" s="18" t="s">
         <v>13</v>
       </c>
@@ -5643,7 +5644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="18" customHeight="1">
+    <row r="53" spans="1:15" ht="18" hidden="1" customHeight="1">
       <c r="A53" s="18" t="s">
         <v>13</v>
       </c>
@@ -5689,7 +5690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="18" customHeight="1">
+    <row r="54" spans="1:15" ht="18" hidden="1" customHeight="1">
       <c r="A54" s="18" t="s">
         <v>13</v>
       </c>
@@ -5735,7 +5736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="15.9" customHeight="1">
+    <row r="55" spans="1:15" ht="15.9" hidden="1" customHeight="1">
       <c r="A55" s="18" t="s">
         <v>13</v>
       </c>
@@ -5781,7 +5782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="18" customHeight="1">
+    <row r="56" spans="1:15" ht="18" hidden="1" customHeight="1">
       <c r="A56" s="18" t="s">
         <v>13</v>
       </c>
@@ -5827,7 +5828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="18" customHeight="1">
+    <row r="57" spans="1:15" ht="18" hidden="1" customHeight="1">
       <c r="A57" s="29" t="s">
         <v>13</v>
       </c>
@@ -5873,7 +5874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="18.5" customHeight="1">
+    <row r="58" spans="1:15" ht="18.5" hidden="1" customHeight="1">
       <c r="A58" s="30" t="s">
         <v>13</v>
       </c>
@@ -5919,7 +5920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="18" customHeight="1">
+    <row r="59" spans="1:15" ht="18" hidden="1" customHeight="1">
       <c r="A59" s="18" t="s">
         <v>13</v>
       </c>
@@ -5965,7 +5966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="18" customHeight="1">
+    <row r="60" spans="1:15" ht="18" hidden="1" customHeight="1">
       <c r="A60" s="18" t="s">
         <v>13</v>
       </c>
@@ -6011,7 +6012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="18.149999999999999" customHeight="1">
+    <row r="61" spans="1:15" ht="18.149999999999999" hidden="1" customHeight="1">
       <c r="A61" s="18" t="s">
         <v>13</v>
       </c>
@@ -6057,7 +6058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="18" customHeight="1">
+    <row r="62" spans="1:15" ht="18" hidden="1" customHeight="1">
       <c r="A62" s="18" t="s">
         <v>13</v>
       </c>
@@ -6103,7 +6104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="18" customHeight="1">
+    <row r="63" spans="1:15" ht="18" hidden="1" customHeight="1">
       <c r="A63" s="18" t="s">
         <v>13</v>
       </c>
@@ -6149,7 +6150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="18.149999999999999" customHeight="1">
+    <row r="64" spans="1:15" ht="18.149999999999999" hidden="1" customHeight="1">
       <c r="A64" s="18" t="s">
         <v>13</v>
       </c>
@@ -6195,7 +6196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="18" customHeight="1">
+    <row r="65" spans="1:15" ht="18" hidden="1" customHeight="1">
       <c r="A65" s="18" t="s">
         <v>13</v>
       </c>
@@ -6241,7 +6242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="18" customHeight="1">
+    <row r="66" spans="1:15" ht="18" hidden="1" customHeight="1">
       <c r="A66" s="29" t="s">
         <v>13</v>
       </c>
@@ -6287,7 +6288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="19.25" customHeight="1">
+    <row r="67" spans="1:15" ht="19.25" hidden="1" customHeight="1">
       <c r="A67" s="30" t="s">
         <v>13</v>
       </c>
@@ -6333,7 +6334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="18" customHeight="1">
+    <row r="68" spans="1:15" ht="18" hidden="1" customHeight="1">
       <c r="A68" s="18" t="s">
         <v>13</v>
       </c>
@@ -6379,7 +6380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="18" customHeight="1">
+    <row r="69" spans="1:15" ht="18" hidden="1" customHeight="1">
       <c r="A69" s="18" t="s">
         <v>13</v>
       </c>
@@ -6425,7 +6426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="18.75" customHeight="1">
+    <row r="70" spans="1:15" ht="18.75" hidden="1" customHeight="1">
       <c r="A70" s="18" t="s">
         <v>13</v>
       </c>
@@ -6471,7 +6472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="18" customHeight="1">
+    <row r="71" spans="1:15" ht="18" hidden="1" customHeight="1">
       <c r="A71" s="18" t="s">
         <v>13</v>
       </c>
@@ -6517,7 +6518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="18" customHeight="1">
+    <row r="72" spans="1:15" ht="18" hidden="1" customHeight="1">
       <c r="A72" s="18" t="s">
         <v>13</v>
       </c>
@@ -6563,7 +6564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="19" customHeight="1">
+    <row r="73" spans="1:15" ht="19" hidden="1" customHeight="1">
       <c r="A73" s="18" t="s">
         <v>13</v>
       </c>
@@ -6609,7 +6610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="18" customHeight="1">
+    <row r="74" spans="1:15" ht="18" hidden="1" customHeight="1">
       <c r="A74" s="18" t="s">
         <v>13</v>
       </c>
@@ -6655,7 +6656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="18" customHeight="1">
+    <row r="75" spans="1:15" ht="18" hidden="1" customHeight="1">
       <c r="A75" s="18" t="s">
         <v>13</v>
       </c>
@@ -6747,7 +6748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="18" customHeight="1">
+    <row r="77" spans="1:15" ht="18" hidden="1" customHeight="1">
       <c r="A77" s="18" t="s">
         <v>13</v>
       </c>
@@ -6793,7 +6794,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="18" customHeight="1">
+    <row r="78" spans="1:15" ht="18" hidden="1" customHeight="1">
       <c r="A78" s="18" t="s">
         <v>13</v>
       </c>
@@ -6839,7 +6840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="18" customHeight="1">
+    <row r="79" spans="1:15" ht="18" hidden="1" customHeight="1">
       <c r="A79" s="18" t="s">
         <v>13</v>
       </c>
@@ -6931,7 +6932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="18" customHeight="1">
+    <row r="81" spans="1:15" ht="18" hidden="1" customHeight="1">
       <c r="A81" s="18" t="s">
         <v>13</v>
       </c>
@@ -6977,7 +6978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="18" customHeight="1">
+    <row r="82" spans="1:15" ht="18" hidden="1" customHeight="1">
       <c r="A82" s="18" t="s">
         <v>13</v>
       </c>
@@ -7023,7 +7024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="18" customHeight="1">
+    <row r="83" spans="1:15" ht="18" hidden="1" customHeight="1">
       <c r="A83" s="18" t="s">
         <v>13</v>
       </c>
@@ -7115,7 +7116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="18" customHeight="1">
+    <row r="85" spans="1:15" ht="18" hidden="1" customHeight="1">
       <c r="A85" s="18" t="s">
         <v>13</v>
       </c>
@@ -7161,7 +7162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="18" customHeight="1">
+    <row r="86" spans="1:15" ht="18" hidden="1" customHeight="1">
       <c r="A86" s="18" t="s">
         <v>13</v>
       </c>
@@ -7207,7 +7208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="18" customHeight="1">
+    <row r="87" spans="1:15" ht="18" hidden="1" customHeight="1">
       <c r="A87" s="18" t="s">
         <v>13</v>
       </c>
@@ -7253,7 +7254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="29" customHeight="1">
+    <row r="88" spans="1:15" ht="29" hidden="1" customHeight="1">
       <c r="A88" s="18" t="s">
         <v>13</v>
       </c>
@@ -7299,7 +7300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="29" customHeight="1">
+    <row r="89" spans="1:15" ht="29" hidden="1" customHeight="1">
       <c r="A89" s="18" t="s">
         <v>13</v>
       </c>
@@ -7347,7 +7348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="29" customHeight="1">
+    <row r="90" spans="1:15" ht="29" hidden="1" customHeight="1">
       <c r="A90" s="18" t="s">
         <v>13</v>
       </c>
@@ -7395,7 +7396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="29" customHeight="1">
+    <row r="91" spans="1:15" ht="29" hidden="1" customHeight="1">
       <c r="A91" s="18" t="s">
         <v>13</v>
       </c>
@@ -7443,7 +7444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="29" customHeight="1">
+    <row r="92" spans="1:15" ht="29" hidden="1" customHeight="1">
       <c r="A92" s="18" t="s">
         <v>13</v>
       </c>
@@ -7491,7 +7492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="29" customHeight="1">
+    <row r="93" spans="1:15" ht="29" hidden="1" customHeight="1">
       <c r="A93" s="18" t="s">
         <v>13</v>
       </c>
@@ -7537,7 +7538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="29" customHeight="1">
+    <row r="94" spans="1:15" ht="29" hidden="1" customHeight="1">
       <c r="A94" s="18" t="s">
         <v>13</v>
       </c>
@@ -7583,7 +7584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="29" customHeight="1">
+    <row r="95" spans="1:15" ht="29" hidden="1" customHeight="1">
       <c r="A95" s="18" t="s">
         <v>13</v>
       </c>
@@ -7629,7 +7630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="29" customHeight="1">
+    <row r="96" spans="1:15" ht="29" hidden="1" customHeight="1">
       <c r="A96" s="18" t="s">
         <v>13</v>
       </c>
@@ -7675,7 +7676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:15" ht="29" customHeight="1">
+    <row r="97" spans="1:15" ht="29" hidden="1" customHeight="1">
       <c r="A97" s="18" t="s">
         <v>13</v>
       </c>
@@ -7721,7 +7722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:15" ht="29" customHeight="1">
+    <row r="98" spans="1:15" ht="29" hidden="1" customHeight="1">
       <c r="A98" s="18" t="s">
         <v>13</v>
       </c>
@@ -7767,7 +7768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:15" ht="19.149999999999999" customHeight="1">
+    <row r="99" spans="1:15" ht="19.149999999999999" hidden="1" customHeight="1">
       <c r="A99" s="18" t="s">
         <v>13</v>
       </c>
@@ -7813,7 +7814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:15" ht="18" customHeight="1">
+    <row r="100" spans="1:15" ht="18" hidden="1" customHeight="1">
       <c r="A100" s="18" t="s">
         <v>13</v>
       </c>
@@ -7859,7 +7860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:15" ht="18" customHeight="1">
+    <row r="101" spans="1:15" ht="18" hidden="1" customHeight="1">
       <c r="A101" s="18" t="s">
         <v>13</v>
       </c>
@@ -7905,7 +7906,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="102" spans="1:15" ht="18" customHeight="1">
+    <row r="102" spans="1:15" ht="18" hidden="1" customHeight="1">
       <c r="A102" s="18" t="s">
         <v>13</v>
       </c>
@@ -7952,7 +7953,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:CZ102" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:CZ102" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Create ATM Data Maintenance"/>
+        <filter val="Create ATM Data Maintenance_x000a_"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape"/>
